--- a/平时作业/代码/backend/test/销售系统_条件组合覆盖.xlsx
+++ b/平时作业/代码/backend/test/销售系统_条件组合覆盖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temporary files\课程\大三下\2022-2023第二学期软件测试课程资料\project\平时作业\代码\backend\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC21C36-91FF-4FAC-A444-E56A4209A167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A025AC2-B265-4548-8D65-23BBF61870E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -775,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3"/>
     </row>
